--- a/Test-Data/SalesModule.xlsx
+++ b/Test-Data/SalesModule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tursunay/Documents/magentoautomationeu-team3_Tursunay/Test-Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\maganto-test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646544D6-A97C-4C48-9EFB-CE7474C66504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="27600" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="27600" windowHeight="20040"/>
   </bookViews>
   <sheets>
     <sheet name="Refunds_Info" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>07/26/2022</t>
   </si>
@@ -37,13 +36,19 @@
   </si>
   <si>
     <t>7/27/2019</t>
+  </si>
+  <si>
+    <t>bill to name</t>
+  </si>
+  <si>
+    <t>team33  team33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +61,13 @@
       <color rgb="FF89CA78"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -86,6 +98,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,33 +378,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89A948-0BFC-44D4-8150-E6FCAD6E896E}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
